--- a/python/再生冷却.xlsx
+++ b/python/再生冷却.xlsx
@@ -1,227 +1,280 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ina111/git/Regenerative-Cooling-Rocket-Engine-Calculation/python/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14300" windowHeight="14080" tabRatio="500"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hoge" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hoge1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hoge2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>data</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit/memo</t>
   </si>
   <si>
     <t>推力</t>
-    <rPh sb="0" eb="2">
-      <t>スイリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>燃焼室圧力</t>
-    <rPh sb="0" eb="3">
-      <t>ネンショウシツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Mpa</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>O/F</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>推進剤（燃料）</t>
-    <rPh sb="0" eb="3">
-      <t>スイシンザイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ネンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RP-1</t>
   </si>
   <si>
     <t>CEA記述</t>
-    <rPh sb="3" eb="5">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃料密度</t>
+  </si>
+  <si>
+    <t>g/cm3</t>
   </si>
   <si>
     <t>推進剤（酸化剤）</t>
-    <rPh sb="0" eb="3">
-      <t>スイシンザイ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>サンカザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>燃料密度</t>
-    <rPh sb="0" eb="2">
-      <t>ネンリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミツド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O2(L)</t>
   </si>
   <si>
     <t>酸化剤密度</t>
-    <rPh sb="0" eb="3">
-      <t>サンカザイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミツド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RP-1</t>
-  </si>
-  <si>
-    <t>O2(L)</t>
-  </si>
-  <si>
-    <t>g/cm3</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>L*</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>m</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>燃焼室強度</t>
-    <rPh sb="0" eb="3">
-      <t>ネンショウシツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キョウド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>安全率</t>
-    <rPh sb="0" eb="3">
-      <t>アンゼンリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>燃料熱容量</t>
-    <rPh sb="0" eb="2">
-      <t>ネンリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ネツリョウヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>燃料粘性係数</t>
-    <rPh sb="0" eb="2">
-      <t>ネンリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>ネンセイケイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>燃料熱伝導率</t>
-    <rPh sb="0" eb="2">
-      <t>ネンリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ネツデンドウイｒツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>金属熱伝導率</t>
-    <rPh sb="0" eb="2">
-      <t>キンゾク</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>ネツデンドウリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unit/memo</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼室直径</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>再生冷却_溝幅</t>
+  </si>
+  <si>
+    <t>再生冷却_溝高さ</t>
+  </si>
+  <si>
+    <t>再生冷却_溝数</t>
+  </si>
+  <si>
+    <t>個</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>MPa</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>燃焼室温度</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>スロート温度</t>
+  </si>
+  <si>
+    <t>出口温度</t>
+  </si>
+  <si>
+    <t>スロート出口比</t>
+  </si>
+  <si>
+    <t>C*</t>
+  </si>
+  <si>
+    <t>Cf</t>
+  </si>
+  <si>
+    <t>Isp</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>Dt</t>
+  </si>
+  <si>
+    <t>Ae</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Vc</t>
+  </si>
+  <si>
+    <t>Dc</t>
+  </si>
+  <si>
+    <t>Ac</t>
+  </si>
+  <si>
+    <t>Lc</t>
+  </si>
+  <si>
+    <t>Ct</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>hg</t>
+  </si>
+  <si>
+    <t>rg</t>
+  </si>
+  <si>
+    <t>path_area</t>
+  </si>
+  <si>
+    <t>hydraulic_diam</t>
+  </si>
+  <si>
+    <t>vf</t>
+  </si>
+  <si>
+    <t>delta_p</t>
+  </si>
+  <si>
+    <t>nyuf</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>hf</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>hm</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>rc</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>Tc</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Tcw</t>
+  </si>
+  <si>
+    <t>Tcwc</t>
+  </si>
+  <si>
+    <t>A_ct</t>
+  </si>
+  <si>
+    <t>Tf_out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -237,21 +290,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="標準" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -517,171 +564,1927 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.7109375" defaultRowHeight="20" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
         <v>5000</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0007429099999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="n">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
         <v>1.6</v>
       </c>
       <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0007429099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3425.56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3258.34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2166</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.9885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1777.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.3462</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2393.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4206.875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="n">
+        <v>73.18715467729113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12572.2459375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="n">
+        <v>126.5206729896778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5889625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31415.92653589793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="n">
+        <v>187.4725863415208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.710027100271003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.089078298654634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6144347937219511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.474643504932683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5603.986972115845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0001784443834319692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="n">
+        <v>296.1131536009403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="n">
+        <v>36388444.89023004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8.950722891566265e-07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1654129823860.094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.55491063</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="n">
+        <v>178487073.6384618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4747756158783084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.106258128168726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.948787436592315e-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.000407663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.106913723426524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3425.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1484.427181438438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3424.689966268792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3424.586816579303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="n">
+        <v>145181.650406504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.003477312320872468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0007429099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3425.56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3258.34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2166</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.9885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1777.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.3462</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2393.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4206.875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="n">
+        <v>73.18715467729113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12572.2459375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="n">
+        <v>126.5206729896778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5889625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31415.92653589793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="n">
+        <v>187.4725863415208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.710027100271003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.089078298654634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6144347937219511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.474643504932683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5603.986972115845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0001784443834319692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="n">
+        <v>296.1131536009403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="n">
+        <v>36388444.89023004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8.950722891566265e-07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1654129823860.094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.55491063</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="n">
+        <v>178487073.6384618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4747756158783084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.106258128168726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.948787436592315e-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.000407663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.106913723426524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3425.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1484.427181438438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3424.689966268792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3424.586816579303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="n">
+        <v>145181.650406504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.003477312320872468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
         <v>2.4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
         <v>0.83</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.14</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1.1399999999999999</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.4</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1.4</v>
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>150</v>
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.5</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>2.5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2093</v>
+      </c>
+      <c r="C12" t="s"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0007429099999999999</v>
+      </c>
+      <c r="C13" t="s"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>7.4290999999999995E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="C14" t="s"/>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>390</v>
+      </c>
+      <c r="C15" t="s"/>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3425.56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3258.34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2166</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.9885</v>
+      </c>
+      <c r="C23" t="s"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1777.8</v>
+      </c>
+      <c r="C24" t="s"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.3462</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2393.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4206.875</v>
+      </c>
+      <c r="C27" t="s"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="n">
+        <v>73.18715467729113</v>
+      </c>
+      <c r="C28" t="s"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12572.2459375</v>
+      </c>
+      <c r="C29" t="s"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="n">
+        <v>126.5206729896778</v>
+      </c>
+      <c r="C30" t="s"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5889625</v>
+      </c>
+      <c r="C31" t="s"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="n">
+        <v>200</v>
+      </c>
+      <c r="C32" t="s"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31415.92653589793</v>
+      </c>
+      <c r="C33" t="s"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="n">
+        <v>187.4725863415208</v>
+      </c>
+      <c r="C34" t="s"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.710027100271003</v>
+      </c>
+      <c r="C35" t="s"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.089078298654634</v>
+      </c>
+      <c r="C36" t="s"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6144347937219511</v>
+      </c>
+      <c r="C37" t="s"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.474643504932683</v>
+      </c>
+      <c r="C38" t="s"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5603.986972115845</v>
+      </c>
+      <c r="C39" t="s"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0001784443834319692</v>
+      </c>
+      <c r="C40" t="s"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="n">
+        <v>296.1131536009403</v>
+      </c>
+      <c r="C43" t="s"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="n">
+        <v>36388444.89023004</v>
+      </c>
+      <c r="C44" t="s"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8.950722891566265e-07</v>
+      </c>
+      <c r="C45" t="s"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1654129823860.094</v>
+      </c>
+      <c r="C46" t="s"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.55491063</v>
+      </c>
+      <c r="C47" t="s"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="n">
+        <v>178487073.6384618</v>
+      </c>
+      <c r="C48" t="s"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4747756158783084</v>
+      </c>
+      <c r="C49" t="s"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.106258128168726</v>
+      </c>
+      <c r="C50" t="s"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="n">
         <v>390</v>
       </c>
+      <c r="C51" t="s"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.948787436592315e-05</v>
+      </c>
+      <c r="C52" t="s"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.000407663</v>
+      </c>
+      <c r="C53" t="s"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.106913723426524</v>
+      </c>
+      <c r="C54" t="s"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3425.56</v>
+      </c>
+      <c r="C55" t="s"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1484.427181438438</v>
+      </c>
+      <c r="C56" t="s"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3424.689966268792</v>
+      </c>
+      <c r="C57" t="s"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3424.586816579303</v>
+      </c>
+      <c r="C58" t="s"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="n">
+        <v>145181.650406504</v>
+      </c>
+      <c r="C59" t="s"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.003477312320872468</v>
+      </c>
+      <c r="C60" t="s"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/python/再生冷却.xlsx
+++ b/python/再生冷却.xlsx
@@ -10,6 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hoge" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hoge1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hoge2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hoge3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hoge4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2034,6 +2036,1118 @@
       <c r="B12" t="n">
         <v>2093</v>
       </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0007429099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3425.56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3258.34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2166</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.9885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1777.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.3462</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2393.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4206.875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="n">
+        <v>73.18715467729113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12572.2459375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="n">
+        <v>126.5206729896778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5889625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31415.92653589793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="n">
+        <v>187.4725863415208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.710027100271003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.089078298654634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6144347937219511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.474643504932683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5603.986972115845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0001784443834319692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="n">
+        <v>296.1131536009403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="n">
+        <v>36388444.89023004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8.950722891566265e-07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1654129823860.094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.55491063</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="n">
+        <v>178487073.6384618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4747756158783084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.106258128168726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.948787436592315e-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.000407663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.106913723426524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3425.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1484.427181438438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3424.689966268792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3424.586816579303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="n">
+        <v>145181.650406504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.003477312320872468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0007429099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="n">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3425.56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3258.34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2166</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.9885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1777.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.3462</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2393.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4206.875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="n">
+        <v>73.18715467729113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12572.2459375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="n">
+        <v>126.5206729896778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5889625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31415.92653589793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="n">
+        <v>187.4725863415208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2.710027100271003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.089078298654634</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6144347937219511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.474643504932683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5603.986972115845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0001784443834319692</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="n">
+        <v>296.1131536009403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="n">
+        <v>36388444.89023004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8.950722891566265e-07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1654129823860.094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.55491063</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="n">
+        <v>178487073.6384618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4747756158783084</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.106258128168726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.948787436592315e-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.000407663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.106913723426524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3425.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1484.427181438438</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3424.689966268792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3424.586816579303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="n">
+        <v>145181.650406504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.003477312320872468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2093</v>
+      </c>
       <c r="C12" t="s"/>
     </row>
     <row r="13" spans="1:3">
